--- a/model1/structuralData/lc.xlsx
+++ b/model1/structuralData/lc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\projects\ejmmp\model1\structuralData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pt/GitHub/ejmmp/model1/structuralData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE0DAC07-DB83-4E85-BE6A-338DE0EF2757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE499879-5889-454E-9C56-9E0FE90A013D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="640" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="3" r:id="rId1"/>
@@ -182,16 +182,19 @@
       <b/>
       <sz val="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -289,7 +292,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -305,7 +308,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -630,19 +633,19 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.4" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.88671875" customWidth="1"/>
+    <col min="1" max="1" width="132.83203125" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>39</v>
       </c>
@@ -650,7 +653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>40</v>
       </c>
@@ -658,8 +661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -667,7 +669,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -675,7 +677,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -683,7 +685,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -691,8 +693,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>41</v>
       </c>
@@ -703,7 +704,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>43</v>
       </c>
@@ -714,7 +715,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -725,7 +726,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -736,7 +737,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -747,7 +748,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
@@ -758,7 +759,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -769,7 +770,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
@@ -780,7 +781,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -791,7 +792,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
@@ -802,7 +803,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
@@ -813,7 +814,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
@@ -824,7 +825,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
@@ -835,7 +836,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
@@ -846,7 +847,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
@@ -857,7 +858,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>23</v>
       </c>
@@ -868,7 +869,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>24</v>
       </c>
@@ -879,7 +880,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>25</v>
       </c>
@@ -890,7 +891,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>26</v>
       </c>
@@ -901,7 +902,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>27</v>
       </c>
@@ -912,7 +913,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>28</v>
       </c>
@@ -923,7 +924,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>29</v>
       </c>
@@ -934,7 +935,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>30</v>
       </c>
@@ -945,7 +946,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>31</v>
       </c>
@@ -956,7 +957,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>32</v>
       </c>
@@ -967,7 +968,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>33</v>
       </c>
@@ -978,7 +979,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>34</v>
       </c>
@@ -989,7 +990,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>35</v>
       </c>
@@ -1000,7 +1001,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>36</v>
       </c>
@@ -1011,12 +1012,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>44</v>
       </c>
